--- a/Data/Create_Term_Deposits_LCY.xlsx
+++ b/Data/Create_Term_Deposits_LCY.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti6\IdeaProjects\Retail Ops\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,25 +19,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Transaction Number</t>
   </si>
   <si>
-    <t>MM2300400041</t>
-  </si>
-  <si>
     <t>MM2300400047</t>
   </si>
   <si>
     <t>MM2300400048</t>
+  </si>
+  <si>
+    <t>MM2300400049</t>
+  </si>
+  <si>
+    <t>MM2300400043</t>
+  </si>
+  <si>
+    <t>MM2316800128</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,17 +369,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Create_Term_Deposits_LCY.xlsx
+++ b/Data/Create_Term_Deposits_LCY.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Data\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -37,12 +37,16 @@
   </si>
   <si>
     <t>MM2316800128</t>
+  </si>
+  <si>
+    <t>MM2318500025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -354,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
@@ -392,6 +396,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Create_Term_Deposits_LCY.xlsx
+++ b/Data/Create_Term_Deposits_LCY.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Data\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -40,13 +40,42 @@
   </si>
   <si>
     <t>MM2318500025</t>
+  </si>
+  <si>
+    <t>INTEND.DATE</t>
+  </si>
+  <si>
+    <t>TAX.INTEREST.TYPE:1</t>
+  </si>
+  <si>
+    <t>CHARGE.CODE:1</t>
+  </si>
+  <si>
+    <t>CHARGE.AMOUNT:1</t>
+  </si>
+  <si>
+    <t>DRAWDOWN.ACCOUNT</t>
+  </si>
+  <si>
+    <t>PRIN.LIQ.ACCT</t>
+  </si>
+  <si>
+    <t>INT.LIQ.ACCT</t>
+  </si>
+  <si>
+    <t>CHRG.LIQ.ACCT</t>
+  </si>
+  <si>
+    <t>FINAL.MATURITY</t>
+  </si>
+  <si>
+    <t>EXP.DATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,45 +387,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
